--- a/temp/temperature_factor.xlsx
+++ b/temp/temperature_factor.xlsx
@@ -2,25 +2,38 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/urijeronin/Documents/GitHub/automate-reporter-backend/static/reportsTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{46092C40-7D4F-884A-9699-F835AD7800A2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3C6FA01B-29E8-2C47-A91D-D431CBA9A2C3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="21000" windowWidth="33600" xWindow="0" xr2:uid="{FA663D00-3524-E944-A8A4-525CA0CF69BE}" yWindow="0"/>
+    <workbookView activeTab="1" windowHeight="18960" windowWidth="33600" xWindow="0" xr2:uid="{FA663D00-3524-E944-A8A4-525CA0CF69BE}" yWindow="500"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" r:id="rId1" sheetId="1"/>
     <sheet name="Свод" r:id="rId2" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Срез_Месяц">#N/A</definedName>
+    <definedName name="Срез_Филиал">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -94,31 +107,31 @@
     <t>Динамика изменения температуры, С</t>
   </si>
   <si>
-    <t>Названия строк</t>
-  </si>
-  <si>
     <t>(пусто)</t>
   </si>
   <si>
     <t>Общий итог</t>
   </si>
   <si>
-    <t>(Все)</t>
+    <t>ОС за прошлый период, тыс кВтч</t>
   </si>
   <si>
-    <t>Среднее по полю Температура за прошлый период, С</t>
+    <t>ОС за текущий период, тыс кВтч</t>
   </si>
   <si>
-    <t>Сумма по полю Отпуск в сеть за прошлый период, тыс кВтч</t>
+    <t>температура за прошлый период, С,</t>
   </si>
   <si>
-    <t>Сумма по полю Отпуск в сеть за текущий период, тыс кВтч</t>
+    <t>Температура за текущий период, С,</t>
   </si>
   <si>
-    <t>Среднее по полю Температура за текущий период, С</t>
+    <t>Температурный фактор, тыс кВтч,</t>
   </si>
   <si>
-    <t>Сумма по полю Температурный фактор, тыс кВтч</t>
+    <t>После скачивания обновите сводную таблицу!</t>
+  </si>
+  <si>
+    <t>На листе "Данные" расположена таблица, которую вы настроили на сайте, а так же данные о температурном факторе по месячно по выбранным вам годам</t>
   </si>
   <si>
     <t>"Алтайэнерго"</t>
@@ -170,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,13 +204,51 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -227,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -235,35 +286,297 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="61">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right"/>
     </dxf>
     <dxf>
       <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -296,6 +609,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -326,6 +649,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -351,206 +684,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -567,12 +700,173 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Филиал">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7755F16-46DB-4542-9359-AE50AB420BA7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Филиал"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15265400" y="1447800"/>
+              <a:ext cx="1828800" cy="4787900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Эта фигура представляет срез. Срезы поддерживаются только в Excel 2010 и более поздних версиях.
+Если фигура была изменена в более ранней версии Excel или книга была сохранена в Excel 2003 или более ранней версии, использование среза невозможно.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Месяц">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6A44E3-5C4A-0540-A2BA-B7894431C6A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Месяц"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13271500" y="1447800"/>
+              <a:ext cx="1828800" cy="4724400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Эта фигура представляет срез. Срезы поддерживаются только в Excel 2010 и более поздних версиях.
+Если фигура была изменена в более ранней версии Excel или книга была сохранена в Excel 2003 или более ранней версии, использование среза невозможно.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44361.806645949073" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="113" xr:uid="{A1D28D28-93A0-B949-9ABD-7627F3082ED9}">
   <cacheSource type="worksheet">
     <worksheetSource ref="I1:P1048576" sheet="Данные"/>
   </cacheSource>
-  <cacheFields count="8">
+  <cacheFields count="10">
     <cacheField name="Филиал" numFmtId="0">
       <sharedItems containsBlank="1" count="2">
         <s v="${table:offsets.department}"/>
@@ -612,10 +906,12 @@
     <cacheField name="Температурный фактор, тыс кВтч" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
+    <cacheField name="Данамика температуры" numFmtId="0" formula=" 0" databaseField="0"/>
+    <cacheField name="Динамика температуры" numFmtId="0" formula="'Температура за текущий период, С'-'Температура за прошлый период, С'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1003220740"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1757,9 +2053,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CBC14E1-2ABA-764B-93EB-FAD2CFE6D3E9}" name="Сводная таблица2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CBC14E1-2ABA-764B-93EB-FAD2CFE6D3E9}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" showDrill="0" showDataTips="0" enableDrill="0" itemPrintTitles="1" createdVersion="7" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:F8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="0"/>
@@ -1767,7 +2063,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
@@ -1798,6 +2094,8 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -1833,18 +2131,15 @@
       <x v="4"/>
     </i>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
   <dataFields count="5">
-    <dataField name="Сумма по полю Отпуск в сеть за прошлый период, тыс кВтч" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Сумма по полю Отпуск в сеть за текущий период, тыс кВтч" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Среднее по полю Температура за прошлый период, С" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Среднее по полю Температура за текущий период, С" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Сумма по полю Температурный фактор, тыс кВтч" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="ОС за прошлый период, тыс кВтч" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="ОС за текущий период, тыс кВтч" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="температура за прошлый период, С," fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Температура за текущий период, С," fld="5" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Температурный фактор, тыс кВтч," fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="6">
-    <format dxfId="7">
+  <formats count="25">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -1857,7 +2152,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="49">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -1870,7 +2165,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="48">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -1883,18 +2178,151 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="45">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -1907,6 +2335,45 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Срез_Филиал" xr10:uid="{07AFC6B0-F0D9-0543-B730-5A21EF0774BF}" sourceName="Филиал">
+  <pivotTables>
+    <pivotTable tabId="2" name="Сводная таблица2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1003220740">
+      <items count="2">
+        <i x="0" s="1"/>
+        <i x="1" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Срез_Месяц" xr10:uid="{0A8D7EF9-826D-0E4C-8768-0758E895DFAA}" sourceName="Месяц">
+  <pivotTables>
+    <pivotTable tabId="2" name="Сводная таблица2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1003220740">
+      <items count="2">
+        <i x="0" s="1"/>
+        <i x="1" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Филиал" xr10:uid="{71357F58-ED9B-524D-AAF7-216FE7EEE684}" cache="Срез_Филиал" caption="Филиал" rowHeight="251883"/>
+  <slicer name="Месяц" xr10:uid="{D12D1848-4D2A-B24F-87C1-7692BCEE13A5}" cache="Срез_Месяц" caption="Месяц" rowHeight="251883"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2209,7 +2676,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:P148"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38:G39"/>
     </sheetView>
   </sheetViews>
@@ -4562,34 +5029,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G1048576">
-    <cfRule dxfId="32" operator="greaterThan" priority="7" type="cellIs">
+    <cfRule dxfId="60" operator="greaterThan" priority="7" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="31" operator="lessThan" priority="8" type="cellIs">
+    <cfRule dxfId="59" operator="lessThan" priority="8" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P1048576">
-    <cfRule dxfId="30" operator="greaterThan" priority="5" type="cellIs">
+    <cfRule dxfId="58" operator="greaterThan" priority="5" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="29" operator="lessThan" priority="6" type="cellIs">
+    <cfRule dxfId="57" operator="lessThan" priority="6" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule dxfId="28" operator="greaterThan" priority="4" type="cellIs">
+    <cfRule dxfId="56" operator="lessThan" priority="3" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="27" operator="lessThan" priority="3" type="cellIs">
+    <cfRule dxfId="55" operator="greaterThan" priority="4" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O1048576">
-    <cfRule dxfId="24" operator="lessThan" priority="1" type="cellIs">
+    <cfRule dxfId="54" operator="lessThan" priority="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="25" operator="greaterThan" priority="2" type="cellIs">
+    <cfRule dxfId="53" operator="greaterThan" priority="2" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4600,97 +5067,135 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98EEA8B-A86F-A540-BCF0-90B6F9B57B28}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C8" s="8">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="e">
+      <c r="D8" s="8" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="E4" s="8" t="e">
+      <c r="E8" s="8" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F4 F9:F1048576">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>